--- a/KohonenNeuroNet.Resources/TestingData.xlsx
+++ b/KohonenNeuroNet.Resources/TestingData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\KohonenNeuroNet\KohonenNeuroNet.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\KohonenNeuroNet\KohonenNeuroNet.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -389,12 +389,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,6 +404,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,10 +692,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,3083 +716,3080 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>57141</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>7139</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>5866</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>5866</v>
       </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
         <v>-638</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>69509</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>738012</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>80000</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>1525</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>14122</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>9194</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>9194</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>-10019</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>94297</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>700307</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>100305</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>230</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>9936</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>38137</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>38137</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>-68056</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>80552</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>689008</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>60000</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>7755</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>27805</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>27805</v>
       </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>2548</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>1494</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>99621</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>665589</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>292000</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>4161</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>652</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>25420</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>25420</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>2899</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>325132</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>649251</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>160000</v>
       </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>2942</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>2942</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>11220</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>177173</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>597583</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>43648</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>36166</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>31116</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>31110</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
         <v>-114952</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>-4022</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>589579</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>19551</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>1612</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>77175</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>5086</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>4569</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>-6981</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>96535</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>566304</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>93112</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>10878</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>13842</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>13842</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>1549</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>2057</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>116707</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>561726</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>80000</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>8979</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>2221</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>2221</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>270</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>91470</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>543976</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>69000</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>11494</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>-6132</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>75086</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>543079</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>101829</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>14286</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>1033</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>812</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <v>-288</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>488</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>117379</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>528382</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>136000</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>3595</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>2417</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>142011</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>523976</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>30210</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
         <v>8985</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>35243</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>35243</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>79</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>74708</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>505932</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>33250</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>17178</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>6216</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>6216</v>
       </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>4957</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>61601</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>503837</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>170000</v>
       </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>1729</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>2072</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>9745</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>183531</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>497060</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>75750</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
         <v>-2364</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>2490</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>75877</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>489699</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>99154</v>
       </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>8280</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>154</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
         <v>1107</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>85</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>108779</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>486526</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>55000</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>2150</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>2388</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>2359</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
         <v>-6744</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>-14042</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>38748</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>484198</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>100000</v>
       </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>2858</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>102858</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>457581</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>60000</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>15209</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>30514</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>30113</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>873</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>106599</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>446839</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>147000</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
         <v>9073</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>26323</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>26323</v>
       </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>135</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>672</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>183203</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>421954</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>58085</v>
       </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>38363</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
         <v>240</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>96687</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>421529</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>47107</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>7480</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>24295</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
         <v>24295</v>
       </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
         <v>538</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>79421</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>419190</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>68461</v>
       </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
         <v>16256</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>16256</v>
       </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>182</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>24</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>84923</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>415384</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>26670</v>
       </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>36</v>
       </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
         <v>279</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>522</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>27611</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>415087</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>49700</v>
       </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>7896</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>35587</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
         <v>35587</v>
       </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <v>2</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>93186</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>399465</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>69000</v>
       </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
         <v>79</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>8710</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="6">
         <v>8710</v>
       </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
         <v>39</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>77828</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>376962</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>72800</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>26093</v>
       </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
         <v>285</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="6">
         <v>-3878</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>95300</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>372925</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>220000</v>
       </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
         <v>1216</v>
       </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
         <v>2035</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>373</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>223624</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>370030</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>36226</v>
       </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
         <v>9874</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>23550</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <v>23550</v>
       </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
         <v>129</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>69779</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>353239</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>76200</v>
       </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
         <v>7522</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>943</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="6">
         <v>943</v>
       </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
         <v>182</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="6">
         <v>-13154</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>71701</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>346055</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>100000</v>
       </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <v>12567</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>1954</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>1260</v>
       </c>
-      <c r="H34" s="8">
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>4222</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="6">
         <v>850</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="6">
         <v>120874</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>343825</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>56500</v>
       </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
         <v>21695</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>4911</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="6">
         <v>4756</v>
       </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
         <v>3123</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>85974</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>333374</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>70000</v>
       </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>1672</v>
       </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>3473</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="6">
         <v>1253</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="6">
         <v>76397</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <v>324340</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>96400</v>
       </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
         <v>737</v>
       </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
         <v>1784</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="6">
         <v>98933</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="6">
         <v>321223</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>43280</v>
       </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>8009</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <v>6742</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="6">
         <v>6742</v>
       </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
         <v>4271</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="6">
         <v>62301</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="6">
         <v>308458</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>84010</v>
       </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
         <v>27063</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <v>1071</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="6">
         <v>1071</v>
       </c>
-      <c r="H39" s="8">
-        <v>0</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
         <v>-46498</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="6">
         <v>65647</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="6">
         <v>304214</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>72175</v>
       </c>
-      <c r="C40" s="8">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
         <v>2902</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <v>822</v>
       </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <v>782</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="6">
         <v>76682</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="6">
         <v>294724</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>36050</v>
       </c>
-      <c r="C41" s="8">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <v>26976</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>309</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="6">
         <v>309</v>
       </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
         <v>2</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="6">
         <v>5263</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="6">
         <v>68600</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="6">
         <v>294426</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>34500</v>
       </c>
-      <c r="C42" s="8">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
         <v>17540</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>35076</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="6">
         <v>35076</v>
       </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
         <v>361</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="6">
         <v>87478</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="6">
         <v>285690</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>108000</v>
       </c>
-      <c r="C43" s="8">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
         <v>4124</v>
       </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <v>1029</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="6">
         <v>113153</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="6">
         <v>274460</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>70000</v>
       </c>
-      <c r="C44" s="8">
-        <v>0</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
         <v>1408</v>
       </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
         <v>5170</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="6">
         <v>76578</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="6">
         <v>271302</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>36310</v>
       </c>
-      <c r="C45" s="8">
-        <v>0</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
         <v>12</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <v>2382</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>5776</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="6">
         <v>5655</v>
       </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
         <v>15661</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="6">
         <v>796</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="6">
         <v>60937</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="6">
         <v>249067</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>153000</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>-2</v>
       </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
         <v>6826</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>13394</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>13394</v>
       </c>
-      <c r="H46" s="8">
-        <v>0</v>
-      </c>
-      <c r="I46" s="8">
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>16710</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="6">
         <v>1037</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="6">
         <v>190965</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="6">
         <v>248885</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="6">
         <v>70000</v>
       </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
         <v>609</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="6">
         <v>13488</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <v>1344</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="6">
         <v>1344</v>
       </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
         <v>164</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="6">
         <v>85604</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="6">
         <v>234523</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="6">
         <v>228666</v>
       </c>
-      <c r="C48" s="8">
-        <v>0</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
         <v>-6554</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="6">
         <v>222112</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>224591</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <v>37626</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <v>-576</v>
       </c>
-      <c r="D49" s="8">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
         <v>7450</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="6">
         <v>41443</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="6">
         <v>41443</v>
       </c>
-      <c r="H49" s="8">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
         <v>620</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="6">
         <v>86564</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="6">
         <v>211025</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <v>200000</v>
       </c>
-      <c r="C50" s="8">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>16465</v>
       </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <v>-1235087</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="6">
         <v>-1018622</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="6">
         <v>208010</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>96250</v>
       </c>
-      <c r="C51" s="8">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="6">
         <v>11015</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="6">
         <v>7506</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="6">
         <v>7506</v>
       </c>
-      <c r="H51" s="8">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <v>907</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="6">
         <v>115681</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="6">
         <v>207529</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="6">
         <v>61500</v>
       </c>
-      <c r="C52" s="8">
-        <v>0</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8">
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>46729</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <v>25248</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="6">
         <v>25248</v>
       </c>
-      <c r="H52" s="8">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
         <v>19648</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="6">
         <v>-642578</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="6">
         <v>-489600</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="6">
         <v>204094</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="6">
         <v>72474</v>
       </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
         <v>7868</v>
       </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
         <v>2759</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="6">
         <v>-18021</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="6">
         <v>65080</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="6">
         <v>199480</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="6">
         <v>72000</v>
       </c>
-      <c r="C54" s="8">
-        <v>0</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0</v>
-      </c>
-      <c r="E54" s="8">
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
         <v>82</v>
       </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
         <v>-21472</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="6">
         <v>50610</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="6">
         <v>199287</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="6">
         <v>80000</v>
       </c>
-      <c r="C55" s="8">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8">
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
         <v>648</v>
       </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
         <v>75</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="6">
         <v>1580</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="6">
         <v>82302</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="6">
         <v>198933</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="6">
         <v>74500</v>
       </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
         <v>282</v>
       </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
         <v>1007</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="6">
         <v>75789</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="6">
         <v>198535</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="6">
         <v>60000</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="6">
         <v>-7</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="6">
         <v>27</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="6">
         <v>14060</v>
       </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
         <v>2297</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="6">
         <v>76378</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="6">
         <v>198038</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="6">
         <v>125040</v>
       </c>
-      <c r="C58" s="8">
-        <v>0</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0</v>
-      </c>
-      <c r="E58" s="8">
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
         <v>1581</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="6">
         <v>34173</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="6">
         <v>34173</v>
       </c>
-      <c r="H58" s="8">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <v>-205841</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="6">
         <v>-45048</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="6">
         <v>197153</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="6">
         <v>110000</v>
       </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <v>581</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="6">
         <v>110581</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L59" s="6">
         <v>191253</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="6">
         <v>72335</v>
       </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8">
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
         <v>2023</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="6">
         <v>5</v>
       </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
         <v>-1250</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="6">
         <v>1205</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="6">
         <v>74317</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="6">
         <v>183419</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="6">
         <v>56650</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="6">
         <v>-1041</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="6">
         <v>7</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="6">
         <v>7713</v>
       </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8">
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
         <v>95</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="6">
         <v>3037</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="6">
         <v>66461</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="6">
         <v>182947</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="6">
         <v>61277</v>
       </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0</v>
-      </c>
-      <c r="E62" s="8">
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
         <v>6427</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="6">
         <v>4376</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="6">
         <v>4376</v>
       </c>
-      <c r="H62" s="8">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
         <v>1789</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="6">
         <v>73869</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="6">
         <v>180032</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="6">
         <v>36600</v>
       </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
         <v>3920</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="6">
         <v>7344</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="6">
         <v>8127</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="6">
         <v>8127</v>
       </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
         <v>1753</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="6">
         <v>57744</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="6">
         <v>169737</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="6">
         <v>66000</v>
       </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6">
         <v>5765</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="6">
         <v>16418</v>
       </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
         <v>2151</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="6">
         <v>90334</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>146773</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="6">
         <v>65000</v>
       </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
-        <v>0</v>
-      </c>
-      <c r="E65" s="8">
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
         <v>29337</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="6">
         <v>4541</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="6">
         <v>4422</v>
       </c>
-      <c r="H65" s="8">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
         <v>9106</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="6">
         <v>-764870</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="6">
         <v>-640230</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="6">
         <v>145024</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="6">
         <v>85000</v>
       </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0</v>
-      </c>
-      <c r="E66" s="8">
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
         <v>690</v>
       </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
         <v>687</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="6">
         <v>590</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="6">
         <v>86967</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="6">
         <v>141735</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="6">
         <v>38660</v>
       </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="8">
+      <c r="C67" s="6">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
         <v>3401</v>
       </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
+      <c r="F67" s="6">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
         <v>1320</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="6">
         <v>43380</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="6">
         <v>126933</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="6">
         <v>75000</v>
       </c>
-      <c r="C68" s="8">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8">
-        <v>0</v>
-      </c>
-      <c r="E68" s="8">
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
         <v>10707</v>
       </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8">
-        <v>0</v>
-      </c>
-      <c r="I68" s="8">
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
         <v>4364</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="6">
         <v>-348648</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="6">
         <v>-258577</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="6">
         <v>122387</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="6">
         <v>70188</v>
       </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c r="E69" s="8">
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
         <v>1222</v>
       </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="8">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
+      <c r="F69" s="6">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
         <v>945</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="6">
         <v>72354</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="6">
         <v>122220</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="6">
         <v>120000</v>
       </c>
-      <c r="C70" s="8">
-        <v>0</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
-      <c r="H70" s="8">
-        <v>0</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
         <v>-99</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="6">
         <v>119901</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="6">
         <v>121054</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="6">
         <v>58000</v>
       </c>
-      <c r="C71" s="8">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
         <v>5200</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="6">
         <v>7124</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="6">
         <v>3536</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="6">
         <v>3536</v>
       </c>
-      <c r="H71" s="8">
-        <v>0</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
         <v>194</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="6">
         <v>74054</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L71" s="6">
         <v>118462</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="6">
         <v>63000</v>
       </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-      <c r="E72" s="8">
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
         <v>3985</v>
       </c>
-      <c r="F72" s="8">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0</v>
-      </c>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
         <v>327</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="6">
         <v>67313</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="6">
         <v>113821</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="6">
         <v>62450</v>
       </c>
-      <c r="C73" s="8">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0</v>
-      </c>
-      <c r="E73" s="8">
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
         <v>904</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="6">
         <v>52</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="6">
         <v>52</v>
       </c>
-      <c r="H73" s="8">
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+      <c r="I73" s="6">
         <v>4339</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="6">
         <v>-65879</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="6">
         <v>1866</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="6">
         <v>109213</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="6">
         <v>33587</v>
       </c>
-      <c r="C74" s="8">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
         <v>2468</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="6">
         <v>10725</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="6">
         <v>10725</v>
       </c>
-      <c r="H74" s="8">
-        <v>0</v>
-      </c>
-      <c r="I74" s="8">
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
         <v>663</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="6">
         <v>240</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="6">
         <v>47683</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="6">
         <v>108139</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="6">
         <v>80000</v>
       </c>
-      <c r="C75" s="8">
-        <v>0</v>
-      </c>
-      <c r="D75" s="8">
-        <v>0</v>
-      </c>
-      <c r="E75" s="8">
+      <c r="C75" s="6">
+        <v>0</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
         <v>6468</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="6">
         <v>462</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="6">
         <v>462</v>
       </c>
-      <c r="H75" s="8">
-        <v>0</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
         <v>2299</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="6">
         <v>89229</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="6">
         <v>105774</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="6">
         <v>41856</v>
       </c>
-      <c r="C76" s="8">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
         <v>2576</v>
       </c>
-      <c r="F76" s="8">
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <v>0</v>
-      </c>
-      <c r="I76" s="8">
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
         <v>327</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="6">
         <v>479</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="6">
         <v>45237</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="6">
         <v>105471</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="6">
         <v>38221</v>
       </c>
-      <c r="C77" s="8">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
         <v>1041</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="6">
         <v>5603</v>
       </c>
-      <c r="G77" s="8">
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
         <v>3549</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="6">
         <v>224</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="6">
         <v>48638</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="6">
         <v>95385</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="6">
         <v>80000</v>
       </c>
-      <c r="C78" s="8">
-        <v>0</v>
-      </c>
-      <c r="D78" s="8">
-        <v>0</v>
-      </c>
-      <c r="E78" s="8">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
-        <v>0</v>
-      </c>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
-      <c r="H78" s="8">
-        <v>0</v>
-      </c>
-      <c r="I78" s="8">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
         <v>229</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="6">
         <v>80229</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="6">
         <v>95138</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="6">
         <v>72000</v>
       </c>
-      <c r="C79" s="8">
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
         <v>1826</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <v>0</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
         <v>-2509</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="6">
         <v>-29534</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="6">
         <v>41779</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="6">
         <v>93574</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="6">
         <v>75000</v>
       </c>
-      <c r="C80" s="8">
-        <v>0</v>
-      </c>
-      <c r="D80" s="8">
-        <v>0</v>
-      </c>
-      <c r="E80" s="8">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8">
-        <v>0</v>
-      </c>
-      <c r="I80" s="8">
-        <v>0</v>
-      </c>
-      <c r="J80" s="8">
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
         <v>6</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="6">
         <v>75006</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="6">
         <v>75017</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="8">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="6">
         <v>44779</v>
       </c>
-      <c r="C81" s="8">
-        <v>0</v>
-      </c>
-      <c r="D81" s="8">
-        <v>0</v>
-      </c>
-      <c r="E81" s="8">
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
         <v>7154</v>
       </c>
-      <c r="F81" s="8">
-        <v>0</v>
-      </c>
-      <c r="G81" s="8">
-        <v>0</v>
-      </c>
-      <c r="H81" s="8">
-        <v>0</v>
-      </c>
-      <c r="I81" s="8">
-        <v>0</v>
-      </c>
-      <c r="J81" s="8">
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
         <v>169</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="6">
         <v>52102</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="6">
         <v>71195</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3819,14 +3813,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
